--- a/Отпуск.xlsx
+++ b/Отпуск.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\SE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{5420ED8E-EBBE-43C2-A745-9A181C3B2EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0250D3-5B49-400F-8F7E-6AC72EF3419C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="РАСЧЕТЫ" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Пн</t>
   </si>
@@ -194,16 +194,25 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Траты до отъезда1</t>
+  </si>
+  <si>
+    <t>Траты до отъезда2</t>
+  </si>
+  <si>
+    <t>ВВЗЯТЬ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _₴_-;\-* #,##0.00\ _₴_-;_-* &quot;-&quot;??\ _₴_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₴_-;\-* #,##0.00\ _₴_-;_-* &quot;-&quot;??\ _₴_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +280,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -282,12 +298,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,12 +315,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -318,6 +322,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,36 +350,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -677,11 +698,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="S52" sqref="S52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,9 +718,13 @@
     <col min="14" max="14" width="14.28515625" customWidth="1"/>
     <col min="15" max="15" width="11.85546875" customWidth="1"/>
     <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -722,7 +747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>1</v>
       </c>
@@ -742,34 +767,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="25">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="19">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="19">
         <v>9</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="20">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="19">
         <v>11</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="18">
         <v>12</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="18">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="17">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="21">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="21">
         <v>15</v>
       </c>
       <c r="D5" s="2">
@@ -788,11 +813,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>21</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="26">
         <v>22</v>
       </c>
       <c r="D6" s="2">
@@ -811,14 +836,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>28</v>
       </c>
       <c r="C7" s="4">
         <v>29</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="11">
         <v>30</v>
       </c>
       <c r="E7">
@@ -834,505 +859,522 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" s="27">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="T11" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="8">
+        <v>200</v>
+      </c>
+      <c r="O13">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="P13" s="8">
+        <f>N13*O13</f>
+        <v>200</v>
+      </c>
+      <c r="T13" s="8">
+        <f>P13</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14">
+        <v>480</v>
+      </c>
+      <c r="O14">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C11">
+      <c r="P14" s="8">
+        <f t="shared" ref="P14:P32" si="0">N14*O14</f>
+        <v>960</v>
+      </c>
+      <c r="R14" s="8">
+        <f>P14</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15">
+        <f>N14*0.75</f>
+        <v>360</v>
+      </c>
+      <c r="O15">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13" s="19">
-        <v>17</v>
-      </c>
-      <c r="F13" s="15">
-        <v>18</v>
-      </c>
-      <c r="G13" s="14">
-        <v>19</v>
-      </c>
-      <c r="H13" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2">
-        <v>23</v>
-      </c>
-      <c r="E14" s="2">
-        <v>24</v>
-      </c>
-      <c r="F14" s="2">
-        <v>25</v>
-      </c>
-      <c r="G14" s="3">
-        <v>26</v>
-      </c>
-      <c r="H14" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2">
-        <v>31</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2</v>
-      </c>
-      <c r="H15" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>4</v>
-      </c>
-      <c r="C16" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M21" t="s">
-        <v>7</v>
-      </c>
-      <c r="N21" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" t="s">
-        <v>9</v>
-      </c>
-      <c r="P21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="11">
-        <v>200</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23" s="11">
-        <f>N23*O23</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M24" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24">
-        <v>480</v>
-      </c>
-      <c r="O24">
-        <v>2</v>
-      </c>
-      <c r="P24" s="11">
-        <f t="shared" ref="P24:P42" si="0">N24*O24</f>
-        <v>960</v>
-      </c>
-    </row>
-    <row r="25" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M25" t="s">
-        <v>27</v>
-      </c>
-      <c r="N25">
-        <f>N24*0.75</f>
-        <v>360</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25" s="11">
+      <c r="P15" s="8">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-    </row>
-    <row r="26" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="R15" s="8">
+        <f>P15</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16">
+        <v>500</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="T16" s="8">
+        <f>P16</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="13">
+        <v>100</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17" s="8">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="R17" s="8">
+        <f>P17</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18">
+        <v>200</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="T18" s="8">
+        <f>P18</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="P19" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20">
+        <v>3500</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20" s="8">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="R20" s="8">
+        <f>P20</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="21" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21">
+        <v>1100</v>
+      </c>
+      <c r="O21">
+        <v>12</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="T21" s="8">
+        <f>P21</f>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="22" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="P22" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23">
+        <v>1000</v>
+      </c>
+      <c r="O23">
+        <v>12</v>
+      </c>
+      <c r="P23" s="8">
+        <f>N23*O23</f>
+        <v>12000</v>
+      </c>
+      <c r="T23" s="8">
+        <f>P23</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="24" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="P24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="P25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M26" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N26">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="O26">
         <v>1</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P26" s="8">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="T26" s="8">
+        <f>P26</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="13">
+        <v>100</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27" s="8">
+        <f t="shared" ref="P27" si="1">N27*O27</f>
+        <v>300</v>
+      </c>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8">
+        <f t="shared" ref="T27:T28" si="2">P27</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28">
+        <v>500</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" s="8">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="27" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M27" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" s="21">
-        <v>100</v>
-      </c>
-      <c r="O27">
-        <v>3</v>
-      </c>
-      <c r="P27" s="11">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M28" t="s">
-        <v>30</v>
-      </c>
-      <c r="N28">
+      <c r="S28" s="8"/>
+      <c r="T28" s="8">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29">
+        <v>480</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29" s="8">
+        <f t="shared" ref="P29:P30" si="3">N29*O29</f>
+        <v>960</v>
+      </c>
+      <c r="S29" s="8">
+        <f>P29</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="30" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>37</v>
+      </c>
+      <c r="N30">
+        <f>N29*0.75</f>
+        <v>360</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" s="8">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="S30" s="8">
+        <f>P30</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="8">
         <v>200</v>
       </c>
-      <c r="O28">
+      <c r="O31">
         <v>1</v>
       </c>
-      <c r="P28" s="11">
-        <f t="shared" si="0"/>
+      <c r="P31" s="8">
+        <f>N31*O31</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="29" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="P29" s="11">
+      <c r="T31" s="8">
+        <f>P31</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="P32" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M30" t="s">
-        <v>31</v>
-      </c>
-      <c r="N30">
-        <v>3500</v>
-      </c>
-      <c r="O30">
-        <v>2</v>
-      </c>
-      <c r="P30" s="11">
-        <f t="shared" si="0"/>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="31" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M31" t="s">
-        <v>32</v>
-      </c>
-      <c r="N31">
-        <v>1100</v>
-      </c>
-      <c r="O31">
-        <v>14</v>
-      </c>
-      <c r="P31" s="11">
-        <f t="shared" si="0"/>
-        <v>15400</v>
-      </c>
-    </row>
-    <row r="32" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="P32" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M33" t="s">
-        <v>33</v>
-      </c>
-      <c r="N33">
-        <v>500</v>
-      </c>
-      <c r="O33">
-        <v>14</v>
-      </c>
-      <c r="P33" s="11">
-        <f t="shared" si="0"/>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="34" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="P34" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="P35" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M36" t="s">
-        <v>34</v>
-      </c>
-      <c r="N36">
-        <v>200</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36" s="11">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N37" s="21">
-        <v>100</v>
-      </c>
-      <c r="O37">
-        <v>3</v>
-      </c>
-      <c r="P37" s="11">
-        <f t="shared" ref="P37" si="1">N37*O37</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M38" t="s">
-        <v>28</v>
-      </c>
-      <c r="N38">
-        <v>500</v>
-      </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38" s="11">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="39" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M39" t="s">
-        <v>36</v>
-      </c>
-      <c r="N39">
-        <v>480</v>
-      </c>
-      <c r="O39">
-        <v>2</v>
-      </c>
-      <c r="P39" s="11">
-        <f t="shared" ref="P39:P40" si="2">N39*O39</f>
-        <v>960</v>
-      </c>
-    </row>
-    <row r="40" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M40" t="s">
-        <v>37</v>
-      </c>
-      <c r="N40">
-        <f>N39*0.75</f>
-        <v>360</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40" s="11">
-        <f t="shared" si="2"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="41" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M41" t="s">
-        <v>25</v>
-      </c>
-      <c r="N41" s="11">
-        <v>200</v>
-      </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41" s="11">
-        <f>N41*O41</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="P42" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="P44" s="23">
-        <f>SUM(P23:P43)</f>
-        <v>34440</v>
-      </c>
-    </row>
-    <row r="47" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M47" t="s">
+    <row r="34" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="P34" s="15">
+        <f>SUM(P13:P33)</f>
+        <v>37240</v>
+      </c>
+      <c r="R34" s="1">
+        <f>SUM(R13:R33)</f>
+        <v>8620</v>
+      </c>
+      <c r="S34" s="1">
+        <f>SUM(S13:S33)</f>
+        <v>1320</v>
+      </c>
+      <c r="T34" s="23">
+        <f>SUM(T13:T33)</f>
+        <v>27300</v>
+      </c>
+      <c r="U34" s="23">
+        <f>SUM(R34:T34)</f>
+        <v>37240</v>
+      </c>
+    </row>
+    <row r="35" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="S35" s="23">
+        <f>R34+S34</f>
+        <v>9940</v>
+      </c>
+    </row>
+    <row r="38" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M38" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M39" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="S39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="40" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P40" s="13">
+        <v>5000</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>51</v>
+      </c>
+      <c r="S40">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="41" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M41" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P41" s="13">
+        <v>5000</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>51</v>
+      </c>
+      <c r="T41">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="42" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M42" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P42" s="13">
+        <v>10000</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>51</v>
+      </c>
+      <c r="T42">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="43" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M43" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" s="13">
+        <v>15000</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>51</v>
+      </c>
+      <c r="T43">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="44" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M44" s="12"/>
+      <c r="P44" s="13"/>
+    </row>
+    <row r="45" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
         <v>48</v>
       </c>
-      <c r="N47">
+      <c r="N45">
         <v>4100</v>
       </c>
-      <c r="O47">
+      <c r="O45">
         <v>4</v>
       </c>
-      <c r="P47">
-        <f>N47*O47</f>
+      <c r="P45" s="26">
+        <f>N45*O45</f>
         <v>16400</v>
       </c>
-    </row>
-    <row r="48" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M48" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M49" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M50" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="P50" s="21">
-        <v>5000</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M51" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="P51" s="21">
-        <v>5000</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M52" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="P52" s="21">
+      <c r="T45">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="46" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M46" s="12"/>
+      <c r="P46" s="13"/>
+    </row>
+    <row r="47" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="P47" s="16">
+        <f>SUM(P37:P46)</f>
+        <v>51400</v>
+      </c>
+      <c r="S47" s="24">
+        <f>SUM(S38:S43)</f>
         <v>10000</v>
       </c>
-      <c r="Q52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="M53" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="P53" s="21">
-        <v>15000</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="P54" s="24">
-        <f>SUM(P47:P53)</f>
-        <v>51400</v>
-      </c>
-    </row>
-    <row r="56" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="P56" s="22">
-        <f>P54-P44</f>
-        <v>16960</v>
+      <c r="T47" s="24">
+        <f>SUM(T38:T45)</f>
+        <v>46400</v>
+      </c>
+      <c r="U47" s="24">
+        <f>S47+T47</f>
+        <v>56400</v>
+      </c>
+    </row>
+    <row r="48" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="U48" s="26">
+        <f>U47-U34</f>
+        <v>19160</v>
+      </c>
+    </row>
+    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P49" s="14">
+        <f>P47-P34</f>
+        <v>14160</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +1384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1359,10 +1401,10 @@
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <v>0.65277777777777779</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <v>0.51180555555555551</v>
       </c>
       <c r="G4">
@@ -1373,10 +1415,10 @@
       <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>0.6875</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <v>0.51180555555555551</v>
       </c>
       <c r="G5">
@@ -1384,16 +1426,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>0.625</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <v>0.42430555555555555</v>
       </c>
       <c r="G10">
@@ -1407,10 +1449,10 @@
       <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <v>0.79513888888888884</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <v>0.4597222222222222</v>
       </c>
       <c r="G11">
@@ -1421,10 +1463,10 @@
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <v>0.76874999999999993</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="9">
         <v>0.43541666666666662</v>
       </c>
     </row>
@@ -1434,7 +1476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1449,19 +1491,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>1560</v>
       </c>
     </row>
@@ -1469,7 +1511,7 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>1350</v>
       </c>
     </row>
@@ -1477,7 +1519,7 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>1200</v>
       </c>
     </row>
@@ -1485,7 +1527,7 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>1140</v>
       </c>
     </row>
@@ -1493,15 +1535,15 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>1590</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>1350</v>
       </c>
     </row>
@@ -1509,36 +1551,36 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>1230</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>1430</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <v>810</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <v>1100</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="6">
         <v>730</v>
       </c>
     </row>
@@ -1546,25 +1588,25 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="5">
         <v>1050</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="5">
         <v>660</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <v>850</v>
       </c>
     </row>
@@ -1572,7 +1614,7 @@
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <v>770</v>
       </c>
     </row>
@@ -1580,7 +1622,7 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="5">
         <v>1180</v>
       </c>
     </row>
@@ -1588,7 +1630,7 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="5">
         <v>990</v>
       </c>
     </row>
@@ -1596,7 +1638,7 @@
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <v>880</v>
       </c>
     </row>

--- a/Отпуск.xlsx
+++ b/Отпуск.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\SE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0250D3-5B49-400F-8F7E-6AC72EF3419C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19723DCD-15B3-4CD8-AEFE-4F80A6C0B83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>Пн</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>ВВЗЯТЬ</t>
+  </si>
+  <si>
+    <t>сеневир</t>
   </si>
 </sst>
 </file>
@@ -350,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -370,9 +373,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -385,6 +385,10 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -701,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,33 +772,33 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>7</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>8</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>9</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>10</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>11</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <v>12</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>14</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>15</v>
       </c>
       <c r="D5" s="2">
@@ -817,7 +821,7 @@
       <c r="B6" s="2">
         <v>21</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>22</v>
       </c>
       <c r="D6" s="2">
@@ -869,7 +873,7 @@
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <v>7</v>
       </c>
       <c r="F8">
@@ -883,25 +887,25 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="N11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="22" t="s">
+      <c r="O11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="22" t="s">
+      <c r="P11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="R11" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="S11" s="22" t="s">
+      <c r="S11" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="T11" s="22" t="s">
+      <c r="T11" s="21" t="s">
         <v>54</v>
       </c>
     </row>
@@ -928,7 +932,7 @@
       <c r="M14" t="s">
         <v>26</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>480</v>
       </c>
       <c r="O14">
@@ -947,7 +951,7 @@
       <c r="M15" t="s">
         <v>27</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <f>N14*0.75</f>
         <v>360</v>
       </c>
@@ -986,7 +990,7 @@
       <c r="M17" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="28">
         <v>100</v>
       </c>
       <c r="O17">
@@ -1030,7 +1034,7 @@
       <c r="M20" t="s">
         <v>31</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <v>3500</v>
       </c>
       <c r="O20">
@@ -1050,18 +1054,18 @@
         <v>32</v>
       </c>
       <c r="N21">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="O21">
         <v>12</v>
       </c>
       <c r="P21" s="8">
         <f t="shared" si="0"/>
-        <v>13200</v>
+        <v>10800</v>
       </c>
       <c r="T21" s="8">
         <f>P21</f>
-        <v>13200</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="22" spans="13:20" x14ac:dyDescent="0.25">
@@ -1090,9 +1094,22 @@
       </c>
     </row>
     <row r="24" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24">
+        <v>700</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
       <c r="P24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2100</v>
+      </c>
+      <c r="T24" s="8">
+        <f>P24</f>
+        <v>2100</v>
       </c>
     </row>
     <row r="25" spans="13:20" x14ac:dyDescent="0.25">
@@ -1164,7 +1181,7 @@
       <c r="M29" t="s">
         <v>36</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="1">
         <v>480</v>
       </c>
       <c r="O29">
@@ -1183,7 +1200,7 @@
       <c r="M30" t="s">
         <v>37</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <f>N29*0.75</f>
         <v>360</v>
       </c>
@@ -1227,7 +1244,7 @@
     <row r="34" spans="13:21" x14ac:dyDescent="0.25">
       <c r="P34" s="15">
         <f>SUM(P13:P33)</f>
-        <v>37240</v>
+        <v>36940</v>
       </c>
       <c r="R34" s="1">
         <f>SUM(R13:R33)</f>
@@ -1237,17 +1254,17 @@
         <f>SUM(S13:S33)</f>
         <v>1320</v>
       </c>
-      <c r="T34" s="23">
+      <c r="T34" s="22">
         <f>SUM(T13:T33)</f>
-        <v>27300</v>
-      </c>
-      <c r="U34" s="23">
+        <v>27000</v>
+      </c>
+      <c r="U34" s="22">
         <f>SUM(R34:T34)</f>
-        <v>37240</v>
+        <v>36940</v>
       </c>
     </row>
     <row r="35" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="S35" s="23">
+      <c r="S35" s="22">
         <f>R34+S34</f>
         <v>9940</v>
       </c>
@@ -1335,7 +1352,7 @@
       <c r="O45">
         <v>4</v>
       </c>
-      <c r="P45" s="26">
+      <c r="P45" s="25">
         <f>N45*O45</f>
         <v>16400</v>
       </c>
@@ -1352,29 +1369,29 @@
         <f>SUM(P37:P46)</f>
         <v>51400</v>
       </c>
-      <c r="S47" s="24">
+      <c r="S47" s="23">
         <f>SUM(S38:S43)</f>
         <v>10000</v>
       </c>
-      <c r="T47" s="24">
+      <c r="T47" s="23">
         <f>SUM(T38:T45)</f>
         <v>46400</v>
       </c>
-      <c r="U47" s="24">
+      <c r="U47" s="23">
         <f>S47+T47</f>
         <v>56400</v>
       </c>
     </row>
     <row r="48" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="U48" s="26">
+      <c r="U48" s="25">
         <f>U47-U34</f>
-        <v>19160</v>
+        <v>19460</v>
       </c>
     </row>
     <row r="49" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P49" s="14">
         <f>P47-P34</f>
-        <v>14160</v>
+        <v>14460</v>
       </c>
     </row>
   </sheetData>
@@ -1556,11 +1573,11 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1596,11 +1613,11 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
